--- a/Testing Log.xlsx
+++ b/Testing Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbhsschool-my.sharepoint.com/personal/joel_harris_sbhsstudent_school_nz/Documents/Documents/GitHub/L2DTC-Programming/L2DTC-Programming/L2DTC-Programming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c4bc2d0e5571a4/Documents/GitHub/L2DTC-Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{324C84EB-B537-48D9-9538-9F95DDFB65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{324C84EB-B537-48D9-9538-9F95DDFB65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B803BA07-C3E0-4D39-A9DF-34A982F90F37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69F7C673-5B32-48C4-92E0-1F0992271E02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69F7C673-5B32-48C4-92E0-1F0992271E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>Problems that may stem from implementation</t>
   </si>
   <si>
-    <t>Seems like the  snake may die even with no contact</t>
-  </si>
-  <si>
     <t>The apple has it’s own sprite (changed by the png in the files)</t>
+  </si>
+  <si>
+    <t>A certain series of movement causes death, without collision with anything.</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Testing Log.xlsx
+++ b/Testing Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c4bc2d0e5571a4/Documents/GitHub/L2DTC-Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{324C84EB-B537-48D9-9538-9F95DDFB65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B803BA07-C3E0-4D39-A9DF-34A982F90F37}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{324C84EB-B537-48D9-9538-9F95DDFB65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C554A378-360B-4405-88C2-CF327038B29C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69F7C673-5B32-48C4-92E0-1F0992271E02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>What is being tested</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>A certain series of movement causes death, without collision with anything.</t>
+  </si>
+  <si>
+    <t>Background Image</t>
+  </si>
+  <si>
+    <t>Background will change depending on the image saved</t>
+  </si>
+  <si>
+    <t>Background Changes whenever the image changes.</t>
+  </si>
+  <si>
+    <t>Resolution may cause the image to cut out for some screens</t>
   </si>
 </sst>
 </file>
@@ -136,6 +148,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193CCF99-BF35-42D4-B9DB-DD5FE63153B4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +522,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing Log.xlsx
+++ b/Testing Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c4bc2d0e5571a4/Documents/GitHub/L2DTC-Programming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelh\Documents\GitHub\L2DTC-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{324C84EB-B537-48D9-9538-9F95DDFB65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C554A378-360B-4405-88C2-CF327038B29C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCA45CD-9D5E-4CE2-9974-A863B7E5BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69F7C673-5B32-48C4-92E0-1F0992271E02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>What is being tested</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Resolution may cause the image to cut out for some screens</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Everytime player eats apple a sound will play</t>
+  </si>
+  <si>
+    <t>At first no sound would play, eventually fixed and now there is a sound everytime an apple is eaten.</t>
   </si>
 </sst>
 </file>
@@ -148,10 +157,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193CCF99-BF35-42D4-B9DB-DD5FE63153B4}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +541,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing Log.xlsx
+++ b/Testing Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelh\Documents\GitHub\L2DTC-Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c4bc2d0e5571a4/Documents/GitHub/L2DTC-Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCA45CD-9D5E-4CE2-9974-A863B7E5BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1BCA45CD-9D5E-4CE2-9974-A863B7E5BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DFB975B-DFC7-499A-B4C3-B5745E90EBE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69F7C673-5B32-48C4-92E0-1F0992271E02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>What is being tested</t>
   </si>
@@ -105,13 +105,22 @@
   </si>
   <si>
     <t>At first no sound would play, eventually fixed and now there is a sound everytime an apple is eaten.</t>
+  </si>
+  <si>
+    <t>Danger Cells</t>
+  </si>
+  <si>
+    <t>Everytime player eats apple, a cell that kills the player appears</t>
+  </si>
+  <si>
+    <t>Danger Cells appear everytime the player eats an apple, making it progressievly harder for the player</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +128,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,13 +158,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,35 +480,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193CCF99-BF35-42D4-B9DB-DD5FE63153B4}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="107.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="5" max="5" width="77.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -550,6 +574,17 @@
       </c>
       <c r="D7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
